--- a/REGULAR/OJT/MENDOZA, ARRIES.xlsx
+++ b/REGULAR/OJT/MENDOZA, ARRIES.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA289ECB-5B05-404E-8060-4B95182FDD82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1B42B9C-C418-43CC-847A-110CB401287B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="326">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1006,6 +1006,12 @@
   </si>
   <si>
     <t>GRAD 5/5/2023</t>
+  </si>
+  <si>
+    <t>6/14-16/2023</t>
+  </si>
+  <si>
+    <t>6/19,20/2023</t>
   </si>
 </sst>
 </file>
@@ -1700,7 +1706,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K528" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K529" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
@@ -2029,12 +2035,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K528"/>
+  <dimension ref="A2:K529"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A475" zoomScale="218" zoomScaleNormal="218" workbookViewId="0">
-      <pane ySplit="7764" topLeftCell="A474"/>
-      <selection activeCell="D481" sqref="D481"/>
-      <selection pane="bottomLeft" activeCell="C479" sqref="C479:C480"/>
+    <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
+      <pane ySplit="3408" topLeftCell="A475" activePane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="B483" sqref="B483"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2195,7 +2200,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>143.57499999999996</v>
+        <v>144.82499999999996</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2205,7 +2210,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>256.95799999999997</v>
+        <v>253.20799999999997</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -12558,7 +12563,7 @@
     </row>
     <row r="476" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A476" s="39">
-        <v>44927</v>
+        <v>44957</v>
       </c>
       <c r="B476" s="20"/>
       <c r="C476" s="13">
@@ -12578,7 +12583,7 @@
     </row>
     <row r="477" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A477" s="39">
-        <v>44958</v>
+        <v>44985</v>
       </c>
       <c r="B477" s="20" t="s">
         <v>44</v>
@@ -12602,7 +12607,7 @@
     </row>
     <row r="478" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A478" s="39">
-        <v>44986</v>
+        <v>45016</v>
       </c>
       <c r="B478" s="20"/>
       <c r="C478" s="13">
@@ -12622,7 +12627,7 @@
     </row>
     <row r="479" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A479" s="39">
-        <v>45017</v>
+        <v>45046</v>
       </c>
       <c r="B479" s="20"/>
       <c r="C479" s="13">
@@ -12642,7 +12647,7 @@
     </row>
     <row r="480" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A480" s="39">
-        <v>45047</v>
+        <v>45077</v>
       </c>
       <c r="B480" s="20" t="s">
         <v>44</v>
@@ -12666,27 +12671,35 @@
     </row>
     <row r="481" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A481" s="39">
-        <v>45078</v>
-      </c>
-      <c r="B481" s="20"/>
-      <c r="C481" s="13"/>
+        <v>45107</v>
+      </c>
+      <c r="B481" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C481" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D481" s="38"/>
       <c r="E481" s="9"/>
       <c r="F481" s="20"/>
-      <c r="G481" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H481" s="38"/>
+      <c r="G481" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H481" s="38">
+        <v>3</v>
+      </c>
       <c r="I481" s="9"/>
       <c r="J481" s="11"/>
-      <c r="K481" s="20"/>
+      <c r="K481" s="20" t="s">
+        <v>324</v>
+      </c>
     </row>
     <row r="482" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A482" s="39">
-        <v>45108</v>
-      </c>
-      <c r="B482" s="20"/>
+      <c r="A482" s="39"/>
+      <c r="B482" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="C482" s="13"/>
       <c r="D482" s="38"/>
       <c r="E482" s="9"/>
@@ -12695,14 +12708,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H482" s="38"/>
+      <c r="H482" s="38">
+        <v>2</v>
+      </c>
       <c r="I482" s="9"/>
       <c r="J482" s="11"/>
-      <c r="K482" s="20"/>
+      <c r="K482" s="20" t="s">
+        <v>325</v>
+      </c>
     </row>
     <row r="483" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A483" s="39">
-        <v>45139</v>
+        <v>45138</v>
       </c>
       <c r="B483" s="20"/>
       <c r="C483" s="13"/>
@@ -12720,7 +12737,7 @@
     </row>
     <row r="484" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A484" s="39">
-        <v>45170</v>
+        <v>45169</v>
       </c>
       <c r="B484" s="20"/>
       <c r="C484" s="13"/>
@@ -12738,7 +12755,7 @@
     </row>
     <row r="485" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A485" s="39">
-        <v>45200</v>
+        <v>45199</v>
       </c>
       <c r="B485" s="20"/>
       <c r="C485" s="13"/>
@@ -12756,7 +12773,7 @@
     </row>
     <row r="486" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A486" s="39">
-        <v>45231</v>
+        <v>45230</v>
       </c>
       <c r="B486" s="20"/>
       <c r="C486" s="13"/>
@@ -12774,7 +12791,7 @@
     </row>
     <row r="487" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A487" s="39">
-        <v>45261</v>
+        <v>45260</v>
       </c>
       <c r="B487" s="20"/>
       <c r="C487" s="13"/>
@@ -12792,7 +12809,7 @@
     </row>
     <row r="488" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A488" s="39">
-        <v>45292</v>
+        <v>45291</v>
       </c>
       <c r="B488" s="20"/>
       <c r="C488" s="13"/>
@@ -12809,7 +12826,9 @@
       <c r="K488" s="20"/>
     </row>
     <row r="489" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A489" s="39"/>
+      <c r="A489" s="39">
+        <v>45322</v>
+      </c>
       <c r="B489" s="20"/>
       <c r="C489" s="13"/>
       <c r="D489" s="38"/>
@@ -13433,20 +13452,36 @@
       <c r="K527" s="20"/>
     </row>
     <row r="528" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A528" s="40"/>
-      <c r="B528" s="15"/>
-      <c r="C528" s="41"/>
-      <c r="D528" s="42"/>
+      <c r="A528" s="39"/>
+      <c r="B528" s="20"/>
+      <c r="C528" s="13"/>
+      <c r="D528" s="38"/>
       <c r="E528" s="9"/>
-      <c r="F528" s="15"/>
-      <c r="G528" s="41" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H528" s="42"/>
+      <c r="F528" s="20"/>
+      <c r="G528" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H528" s="38"/>
       <c r="I528" s="9"/>
-      <c r="J528" s="12"/>
-      <c r="K528" s="15"/>
+      <c r="J528" s="11"/>
+      <c r="K528" s="20"/>
+    </row>
+    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A529" s="40"/>
+      <c r="B529" s="15"/>
+      <c r="C529" s="41"/>
+      <c r="D529" s="42"/>
+      <c r="E529" s="9"/>
+      <c r="F529" s="15"/>
+      <c r="G529" s="41" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H529" s="42"/>
+      <c r="I529" s="9"/>
+      <c r="J529" s="12"/>
+      <c r="K529" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -13613,7 +13648,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>400.5329999999999</v>
+        <v>398.0329999999999</v>
       </c>
       <c r="C7" s="36">
         <v>1</v>
